--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="12">
   <si>
     <t>Emp ID</t>
   </si>
@@ -59,8 +59,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -79,21 +79,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,42 +93,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,36 +110,39 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,15 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +170,58 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -232,31 +232,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,25 +376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,109 +388,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,16 +456,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -475,7 +475,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,35 +495,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,18 +514,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,127 +562,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1139,9 +1139,7 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4"/>
       <c r="D4" t="s">
         <v>10</v>
       </c>
@@ -1258,8 +1256,6 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
       <c r="F8" t="s">
         <v>9</v>
       </c>
